--- a/GenerateData/Document/Requirement/sprint01/ticket/Task 1103 - Add Scroll.xlsx
+++ b/GenerateData/Document/Requirement/sprint01/ticket/Task 1103 - Add Scroll.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Requirement\sprint01\ticket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C21920-F931-4563-A878-CB90B4AA8674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5FDC3-AEF3-4252-B9EA-44D3340FCBB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2457450" cy="264560"/>
+    <xdr:ext cx="2457450" cy="609013"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Hộp Văn bản 3">
@@ -200,7 +200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6858000" y="3038474"/>
-          <a:ext cx="2457450" cy="264560"/>
+          <a:ext cx="2457450" cy="609013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -231,8 +231,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Add scroll when we have more records</a:t>
+            <a:t>Making a JScrollPane automatically scroll all the way down when we</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> have more line</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -269,6 +274,314 @@
         <a:xfrm flipH="1">
           <a:off x="8086725" y="2666999"/>
           <a:ext cx="1223963" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267611</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Hình ảnh 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4381E782-6173-49DA-9C0A-598EFCCC91CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="3943350"/>
+          <a:ext cx="6525536" cy="4706007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267611</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9854</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Đường kết nối: Mũi tên Gấp khúc 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1D689B-DDF8-4227-8E9F-5272B8565FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9315450" y="3342981"/>
+          <a:ext cx="96161" cy="2953373"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 922137"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Hình chữ nhật 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB90DBE-D224-4CF4-964A-033B0149A88D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210675" y="5495925"/>
+          <a:ext cx="219075" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1092800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Hộp Văn bản 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96714B63-5CB3-499E-8A3A-DF6BF519CEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="7038975"/>
+          <a:ext cx="1092800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>maximum scroll</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>122755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Đường kết nối Mũi tên Thẳng 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA561D-B90C-4FB3-AE4E-564D181E8555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="6700838"/>
+          <a:ext cx="809625" cy="470417"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -562,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
